--- a/outcome/simulate data/B_Mumps.xlsx
+++ b/outcome/simulate data/B_Mumps.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>34442.4387346282</v>
+        <v>37741.9249774857</v>
       </c>
       <c r="C2" t="n">
-        <v>12680.1314201303</v>
+        <v>22588.6597615072</v>
       </c>
       <c r="D2" t="n">
-        <v>1159.86181484371</v>
+        <v>14567.0057077485</v>
       </c>
       <c r="E2" t="n">
-        <v>56204.7460491261</v>
+        <v>52895.1901934641</v>
       </c>
       <c r="F2" t="n">
-        <v>67725.0156544127</v>
+        <v>60916.8442472228</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -442,19 +442,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>28333.907528531</v>
+        <v>30285.3609615971</v>
       </c>
       <c r="C3" t="n">
-        <v>6410.28416858494</v>
+        <v>14975.8347350683</v>
       </c>
       <c r="D3" t="n">
-        <v>-5195.38099280542</v>
+        <v>6871.46109903739</v>
       </c>
       <c r="E3" t="n">
-        <v>50257.5308884771</v>
+        <v>45594.8871881259</v>
       </c>
       <c r="F3" t="n">
-        <v>61863.1960498675</v>
+        <v>53699.2608241568</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -472,19 +472,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>17948.3086422137</v>
+        <v>19181.3616935224</v>
       </c>
       <c r="C4" t="n">
-        <v>-4157.30409489083</v>
+        <v>3706.93112507262</v>
       </c>
       <c r="D4" t="n">
-        <v>-15859.3086131272</v>
+        <v>-4484.73759647274</v>
       </c>
       <c r="E4" t="n">
-        <v>40053.9213793182</v>
+        <v>34655.7922619722</v>
       </c>
       <c r="F4" t="n">
-        <v>51755.9258975545</v>
+        <v>42847.4609835176</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -502,19 +502,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>16080.3446907488</v>
+        <v>17887.4102264547</v>
       </c>
       <c r="C5" t="n">
-        <v>-6139.86274844532</v>
+        <v>2271.42487581919</v>
       </c>
       <c r="D5" t="n">
-        <v>-17902.5300376063</v>
+        <v>-5995.17842095893</v>
       </c>
       <c r="E5" t="n">
-        <v>38300.552129943</v>
+        <v>33503.3955770901</v>
       </c>
       <c r="F5" t="n">
-        <v>50063.2194191039</v>
+        <v>41769.9988738683</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -532,19 +532,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>17633.6819779304</v>
+        <v>20032.9155811554</v>
       </c>
       <c r="C6" t="n">
-        <v>-4647.94893526758</v>
+        <v>4305.91060371286</v>
       </c>
       <c r="D6" t="n">
-        <v>-16443.1318474455</v>
+        <v>-4019.46293345439</v>
       </c>
       <c r="E6" t="n">
-        <v>39915.3128911283</v>
+        <v>35759.9205585979</v>
       </c>
       <c r="F6" t="n">
-        <v>51710.4958033062</v>
+        <v>44085.2940957651</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -562,19 +562,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>21506.3949636076</v>
+        <v>24762.1905827131</v>
       </c>
       <c r="C7" t="n">
-        <v>-830.136422954864</v>
+        <v>8944.33986516719</v>
       </c>
       <c r="D7" t="n">
-        <v>-12654.3818901953</v>
+        <v>570.875498137131</v>
       </c>
       <c r="E7" t="n">
-        <v>43842.92635017</v>
+        <v>40580.0413002591</v>
       </c>
       <c r="F7" t="n">
-        <v>55667.1718174104</v>
+        <v>48953.5056672891</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -592,19 +592,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>24319.9635628686</v>
+        <v>26970.2862216822</v>
       </c>
       <c r="C8" t="n">
-        <v>1908.75259822311</v>
+        <v>11067.1761210477</v>
       </c>
       <c r="D8" t="n">
-        <v>-9955.02584964726</v>
+        <v>2648.57816292513</v>
       </c>
       <c r="E8" t="n">
-        <v>46731.1745275141</v>
+        <v>42873.3963223168</v>
       </c>
       <c r="F8" t="n">
-        <v>58594.9529753844</v>
+        <v>51291.9942804393</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -622,19 +622,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>20585.4256996052</v>
+        <v>23017.0049107123</v>
       </c>
       <c r="C9" t="n">
-        <v>-2118.9743466846</v>
+        <v>6838.65895211459</v>
       </c>
       <c r="D9" t="n">
-        <v>-14137.957719155</v>
+        <v>-1725.64006807617</v>
       </c>
       <c r="E9" t="n">
-        <v>43289.8257458949</v>
+        <v>39195.3508693099</v>
       </c>
       <c r="F9" t="n">
-        <v>55308.8091183653</v>
+        <v>47759.6498895007</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -652,19 +652,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>13341.8724175171</v>
+        <v>13755.3142115425</v>
       </c>
       <c r="C10" t="n">
-        <v>-9695.65182476392</v>
+        <v>-2732.59273840816</v>
       </c>
       <c r="D10" t="n">
-        <v>-21890.9804943759</v>
+        <v>-11460.7634486789</v>
       </c>
       <c r="E10" t="n">
-        <v>36379.3966597981</v>
+        <v>30243.2211614932</v>
       </c>
       <c r="F10" t="n">
-        <v>48574.7253294101</v>
+        <v>38971.3918717639</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -682,19 +682,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>18609.0259054283</v>
+        <v>19759.6940129758</v>
       </c>
       <c r="C11" t="n">
-        <v>-4624.71548839517</v>
+        <v>3081.41582960822</v>
       </c>
       <c r="D11" t="n">
-        <v>-16923.9152436546</v>
+        <v>-5747.53132418752</v>
       </c>
       <c r="E11" t="n">
-        <v>41842.7672992517</v>
+        <v>36437.9721963434</v>
       </c>
       <c r="F11" t="n">
-        <v>54141.9670545111</v>
+        <v>45266.9193501391</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -712,19 +712,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>25337.5724135113</v>
+        <v>28412.1952573335</v>
       </c>
       <c r="C12" t="n">
-        <v>1994.63381520815</v>
+        <v>11614.2260637892</v>
       </c>
       <c r="D12" t="n">
-        <v>-10362.3714483355</v>
+        <v>2721.91831653069</v>
       </c>
       <c r="E12" t="n">
-        <v>48680.5110118146</v>
+        <v>45210.1644508778</v>
       </c>
       <c r="F12" t="n">
-        <v>61037.5162753582</v>
+        <v>54102.4721981363</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -742,19 +742,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>33271.5774798228</v>
+        <v>36778.6681433882</v>
       </c>
       <c r="C13" t="n">
-        <v>9857.31972810639</v>
+        <v>19894.8884116918</v>
       </c>
       <c r="D13" t="n">
-        <v>-2537.43961470223</v>
+        <v>10957.1553094744</v>
       </c>
       <c r="E13" t="n">
-        <v>56685.8352315392</v>
+        <v>53662.4478750846</v>
       </c>
       <c r="F13" t="n">
-        <v>69080.5945743478</v>
+        <v>62600.1809773021</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -772,19 +772,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>34414.6966988882</v>
+        <v>37552.2982181366</v>
       </c>
       <c r="C14" t="n">
-        <v>10916.4048836433</v>
+        <v>20576.9817924996</v>
       </c>
       <c r="D14" t="n">
-        <v>-1522.83940526442</v>
+        <v>11590.7920915524</v>
       </c>
       <c r="E14" t="n">
-        <v>57912.9885141332</v>
+        <v>54527.6146437737</v>
       </c>
       <c r="F14" t="n">
-        <v>70352.2328030409</v>
+        <v>63513.8043447209</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -802,19 +802,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>28308.526176245</v>
+        <v>30114.9222438842</v>
       </c>
       <c r="C15" t="n">
-        <v>4664.56087619985</v>
+        <v>13020.9201340714</v>
       </c>
       <c r="D15" t="n">
-        <v>-7851.79829740217</v>
+        <v>3971.90202709939</v>
       </c>
       <c r="E15" t="n">
-        <v>51952.4914762902</v>
+        <v>47208.924353697</v>
       </c>
       <c r="F15" t="n">
-        <v>64468.8506498922</v>
+        <v>56257.942460669</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -832,19 +832,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>17922.3704360246</v>
+        <v>19024.0434967471</v>
       </c>
       <c r="C16" t="n">
-        <v>-5887.33013867342</v>
+        <v>1804.66542891496</v>
       </c>
       <c r="D16" t="n">
-        <v>-18491.4242670077</v>
+        <v>-7310.72270112176</v>
       </c>
       <c r="E16" t="n">
-        <v>41732.0710107226</v>
+        <v>36243.4215645792</v>
       </c>
       <c r="F16" t="n">
-        <v>54336.1651390569</v>
+        <v>45358.8096946159</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -862,19 +862,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>16053.1827237439</v>
+        <v>17733.8627542297</v>
       </c>
       <c r="C17" t="n">
-        <v>-7860.79165193037</v>
+        <v>407.436505753365</v>
       </c>
       <c r="D17" t="n">
-        <v>-20520.0849961683</v>
+        <v>-8764.61950806766</v>
       </c>
       <c r="E17" t="n">
-        <v>39967.1570994181</v>
+        <v>35060.289002706</v>
       </c>
       <c r="F17" t="n">
-        <v>52626.450443656</v>
+        <v>44232.345016527</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -892,19 +892,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>17607.0968181842</v>
+        <v>19878.756542628</v>
       </c>
       <c r="C18" t="n">
-        <v>-6362.21552907335</v>
+        <v>2468.69709579327</v>
       </c>
       <c r="D18" t="n">
-        <v>-19050.8030259411</v>
+        <v>-6747.6316589241</v>
       </c>
       <c r="E18" t="n">
-        <v>41576.4091654417</v>
+        <v>37288.8159894627</v>
       </c>
       <c r="F18" t="n">
-        <v>54264.9966623095</v>
+        <v>46505.1447441801</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -922,19 +922,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>21482.3604514006</v>
+        <v>24609.6570046508</v>
       </c>
       <c r="C19" t="n">
-        <v>-2536.11876503835</v>
+        <v>7131.09416104912</v>
       </c>
       <c r="D19" t="n">
-        <v>-15250.733630256</v>
+        <v>-2121.49810140337</v>
       </c>
       <c r="E19" t="n">
-        <v>45500.8396678395</v>
+        <v>42088.2198482524</v>
       </c>
       <c r="F19" t="n">
-        <v>58215.4545330572</v>
+        <v>51340.8121107049</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -952,19 +952,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>24298.5727324861</v>
+        <v>26824.0818666713</v>
       </c>
       <c r="C20" t="n">
-        <v>212.797118371938</v>
+        <v>9280.84240848085</v>
       </c>
       <c r="D20" t="n">
-        <v>-12537.4423078575</v>
+        <v>-5.98758558951158</v>
       </c>
       <c r="E20" t="n">
-        <v>48384.3483466002</v>
+        <v>44367.3213248617</v>
       </c>
       <c r="F20" t="n">
-        <v>61134.5877728296</v>
+        <v>53654.151318932</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -982,19 +982,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>20565.0916683364</v>
+        <v>22879.5945974724</v>
       </c>
       <c r="C21" t="n">
-        <v>-3790.07049788336</v>
+        <v>5108.88939980405</v>
       </c>
       <c r="D21" t="n">
-        <v>-16682.9145507016</v>
+        <v>-4298.35368313973</v>
       </c>
       <c r="E21" t="n">
-        <v>44920.2538345561</v>
+        <v>40650.2997951407</v>
       </c>
       <c r="F21" t="n">
-        <v>57813.0978873744</v>
+        <v>50057.5428780845</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1012,19 +1012,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>13321.1779548517</v>
+        <v>13625.5694749088</v>
       </c>
       <c r="C22" t="n">
-        <v>-11341.6237569275</v>
+        <v>-4403.87857047184</v>
       </c>
       <c r="D22" t="n">
-        <v>-24397.3223478641</v>
+        <v>-13948.0918432493</v>
       </c>
       <c r="E22" t="n">
-        <v>37983.9796666309</v>
+        <v>31655.0175202894</v>
       </c>
       <c r="F22" t="n">
-        <v>51039.6782575676</v>
+        <v>41199.2307930669</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1042,19 +1042,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>18588.0736722708</v>
+        <v>19634.8199844858</v>
       </c>
       <c r="C23" t="n">
-        <v>-6255.78640893977</v>
+        <v>1449.00120194137</v>
       </c>
       <c r="D23" t="n">
-        <v>-19407.3315110023</v>
+        <v>-8177.98973886874</v>
       </c>
       <c r="E23" t="n">
-        <v>43431.9337534814</v>
+        <v>37820.6387670302</v>
       </c>
       <c r="F23" t="n">
-        <v>56583.478855544</v>
+        <v>47447.6297078403</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1072,19 +1072,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>25317.5722839202</v>
+        <v>28290.3386437886</v>
       </c>
       <c r="C24" t="n">
-        <v>373.448119239754</v>
+        <v>10008.0965351517</v>
       </c>
       <c r="D24" t="n">
-        <v>-12831.1735824961</v>
+        <v>330.062168809094</v>
       </c>
       <c r="E24" t="n">
-        <v>50261.6964486006</v>
+        <v>46572.5807524254</v>
       </c>
       <c r="F24" t="n">
-        <v>63466.3181503364</v>
+        <v>56250.6151187681</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1102,19 +1102,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>33253.3994353202</v>
+        <v>36659.9226924626</v>
       </c>
       <c r="C25" t="n">
-        <v>8244.13917777923</v>
+        <v>18309.4650018633</v>
       </c>
       <c r="D25" t="n">
-        <v>-4994.96348867896</v>
+        <v>8595.31948773974</v>
       </c>
       <c r="E25" t="n">
-        <v>58262.6596928612</v>
+        <v>55010.3803830619</v>
       </c>
       <c r="F25" t="n">
-        <v>71501.7623593193</v>
+        <v>64724.5258971855</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1132,19 +1132,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>34398.024831595</v>
+        <v>37437.8425416071</v>
       </c>
       <c r="C26" t="n">
-        <v>9311.73367383053</v>
+        <v>19013.6363964168</v>
       </c>
       <c r="D26" t="n">
-        <v>-3968.14668801118</v>
+        <v>9260.45080866581</v>
       </c>
       <c r="E26" t="n">
-        <v>59484.3159893595</v>
+        <v>55862.0486867973</v>
       </c>
       <c r="F26" t="n">
-        <v>72764.1963512012</v>
+        <v>65615.2342745483</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1162,19 +1162,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>28292.3543320899</v>
+        <v>30005.594756364</v>
       </c>
       <c r="C27" t="n">
-        <v>3071.44294291108</v>
+        <v>11483.5935938734</v>
       </c>
       <c r="D27" t="n">
-        <v>-10279.7010647292</v>
+        <v>1678.6384511265</v>
       </c>
       <c r="E27" t="n">
-        <v>53513.2657212687</v>
+        <v>48527.5959188546</v>
       </c>
       <c r="F27" t="n">
-        <v>66864.409728909</v>
+        <v>58332.5510616015</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1192,19 +1192,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>17906.102283627</v>
+        <v>18919.6655459062</v>
       </c>
       <c r="C28" t="n">
-        <v>-7468.48603136984</v>
+        <v>293.517591191467</v>
       </c>
       <c r="D28" t="n">
-        <v>-20900.9816894555</v>
+        <v>-9566.569533087</v>
       </c>
       <c r="E28" t="n">
-        <v>43280.6905986239</v>
+        <v>37545.8135006209</v>
       </c>
       <c r="F28" t="n">
-        <v>56713.1862567096</v>
+        <v>47405.9006248994</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1222,19 +1222,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>16037.1253538504</v>
+        <v>17633.5935742805</v>
       </c>
       <c r="C29" t="n">
-        <v>-9433.95338479317</v>
+        <v>-1081.17515240426</v>
       </c>
       <c r="D29" t="n">
-        <v>-22917.5279877111</v>
+        <v>-10988.1752795629</v>
       </c>
       <c r="E29" t="n">
-        <v>41508.204092494</v>
+        <v>36348.3623009653</v>
       </c>
       <c r="F29" t="n">
-        <v>54991.7786954119</v>
+        <v>46255.3624281238</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1252,19 +1252,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>17591.9618874615</v>
+        <v>19781.8572677227</v>
       </c>
       <c r="C30" t="n">
-        <v>-7930.01855621137</v>
+        <v>998.4254927894</v>
       </c>
       <c r="D30" t="n">
-        <v>-21440.5388941027</v>
+        <v>-8944.92265649352</v>
       </c>
       <c r="E30" t="n">
-        <v>43113.9423311344</v>
+        <v>38565.289042656</v>
       </c>
       <c r="F30" t="n">
-        <v>56624.4626690257</v>
+        <v>48508.6371919389</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1282,19 +1282,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>21468.4504629821</v>
+        <v>24515.9245962266</v>
       </c>
       <c r="C31" t="n">
-        <v>-4098.70043901237</v>
+        <v>5676.5780464529</v>
       </c>
       <c r="D31" t="n">
-        <v>-17633.1325731364</v>
+        <v>-4296.36959665997</v>
       </c>
       <c r="E31" t="n">
-        <v>47035.6013649765</v>
+        <v>43355.2711460004</v>
       </c>
       <c r="F31" t="n">
-        <v>60570.0334991006</v>
+        <v>53328.2187891132</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1312,19 +1312,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>24285.5241859117</v>
+        <v>26733.7201150409</v>
       </c>
       <c r="C32" t="n">
-        <v>-1343.76256825029</v>
+        <v>7841.444737512</v>
       </c>
       <c r="D32" t="n">
-        <v>-14911.0874356116</v>
+        <v>-2159.52173452464</v>
       </c>
       <c r="E32" t="n">
-        <v>49914.8109400736</v>
+        <v>45625.9954925698</v>
       </c>
       <c r="F32" t="n">
-        <v>63482.135807435</v>
+        <v>55626.9619646065</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1342,19 +1342,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>20552.3327890097</v>
+        <v>22792.8113594753</v>
       </c>
       <c r="C33" t="n">
-        <v>-5328.35859598085</v>
+        <v>3701.99835834929</v>
       </c>
       <c r="D33" t="n">
-        <v>-19028.7690358097</v>
+        <v>-6404.06758303946</v>
       </c>
       <c r="E33" t="n">
-        <v>46433.0241740003</v>
+        <v>41883.6243606013</v>
       </c>
       <c r="F33" t="n">
-        <v>60133.4346138291</v>
+        <v>51989.69030199</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1372,19 +1372,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>13308.5143208411</v>
+        <v>13542.3087698039</v>
       </c>
       <c r="C34" t="n">
-        <v>-12860.0097387494</v>
+        <v>-5776.39418130797</v>
       </c>
       <c r="D34" t="n">
-        <v>-26712.7895925692</v>
+        <v>-16003.0977750482</v>
       </c>
       <c r="E34" t="n">
-        <v>39477.0383804317</v>
+        <v>32861.0117209157</v>
       </c>
       <c r="F34" t="n">
-        <v>53329.8182342515</v>
+        <v>43087.7153146559</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1402,19 +1402,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>18575.7918300536</v>
+        <v>19554.7952029675</v>
       </c>
       <c r="C35" t="n">
-        <v>-7761.9999012926</v>
+        <v>99.9363474491365</v>
       </c>
       <c r="D35" t="n">
-        <v>-21704.3846479165</v>
+        <v>-10198.8438282659</v>
       </c>
       <c r="E35" t="n">
-        <v>44913.5835613999</v>
+        <v>39009.6540584858</v>
       </c>
       <c r="F35" t="n">
-        <v>58855.9683080238</v>
+        <v>49308.4342342009</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1432,19 +1432,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>25306.0437578694</v>
+        <v>28213.2403623499</v>
       </c>
       <c r="C36" t="n">
-        <v>-1125.24473237829</v>
+        <v>8675.63718381164</v>
       </c>
       <c r="D36" t="n">
-        <v>-15117.1236734458</v>
+        <v>-1666.94519061887</v>
       </c>
       <c r="E36" t="n">
-        <v>51737.332248117</v>
+        <v>47750.8435408882</v>
       </c>
       <c r="F36" t="n">
-        <v>65729.2111891845</v>
+        <v>58093.4259153187</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1462,19 +1462,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>33242.6714334251</v>
+        <v>36585.5788905769</v>
       </c>
       <c r="C37" t="n">
-        <v>6750.77033249032</v>
+        <v>16990.100046582</v>
       </c>
       <c r="D37" t="n">
-        <v>-7273.19498648298</v>
+        <v>6616.8801455322</v>
       </c>
       <c r="E37" t="n">
-        <v>59734.5725343598</v>
+        <v>56181.0577345718</v>
       </c>
       <c r="F37" t="n">
-        <v>73758.5378533331</v>
+        <v>66554.2776356217</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
